--- a/pa-temp-fix-system.com/php/export/pmo/DPMO250429010.xlsx
+++ b/pa-temp-fix-system.com/php/export/pmo/DPMO250429010.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
   <si>
     <t>_id</t>
   </si>
@@ -11802,12 +11802,6 @@
       </rPr>
       <t>:1Pcs</t>
     </r>
-  </si>
-  <si>
-    <t>ObjectId('681c80f552b8241dcecc70f9')</t>
-  </si>
-  <si>
-    <t>a25050800ux2515</t>
   </si>
   <si>
     <t>ObjectId('681c80968e3d396fd913a586')</t>
@@ -25561,10 +25555,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -26060,506 +26054,495 @@
         <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C60" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C64" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C65" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C66" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C69" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C71" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C72" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C76" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C77" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C80" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C81" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C82" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C83" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C84" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C85" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C86" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C87" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C88" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C89" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D89" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D88" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
